--- a/data/trans_bre/LAWTONB_2R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.36831092254378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13.55141318867783</v>
+        <v>13.55141318867781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03842359307588306</v>
@@ -649,7 +649,7 @@
         <v>0.7072678397482816</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4105771851680364</v>
+        <v>0.4105771851680359</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.92283628831265</v>
+        <v>-9.813942805647507</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.265949280257717</v>
+        <v>1.317880732637754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.806645014494419</v>
+        <v>3.90695549735678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.522803783266208</v>
+        <v>5.47585580394281</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3280231131136139</v>
+        <v>-0.282971878153642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03975242657000612</v>
+        <v>0.04075504950630437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1936462871495215</v>
+        <v>0.1505070965959572</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1679868094546206</v>
+        <v>0.1399274717263275</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.72821139415297</v>
+        <v>12.46478289647057</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.24405446899853</v>
+        <v>23.23093817547655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.5185547072232</v>
+        <v>24.24782672970931</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.47835592114603</v>
+        <v>21.25126896483202</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4692709772097657</v>
+        <v>0.5270814705871337</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.230940500663004</v>
+        <v>1.24398724249232</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.562997659976045</v>
+        <v>1.584341330497597</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7854030416541615</v>
+        <v>0.771689443419559</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.4747712691321431</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6438939084742494</v>
+        <v>0.6438939084742497</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.308433287012224</v>
+        <v>-6.047050381581355</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.136966955427183</v>
+        <v>6.679008427591436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.096776309109232</v>
+        <v>2.73168357790395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9.222483031124503</v>
+        <v>9.283937068850539</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1914657694689185</v>
+        <v>-0.1683776338443704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.166260915985309</v>
+        <v>0.1909602801861951</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0689238488346862</v>
+        <v>0.08983141994364675</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.319711539398169</v>
+        <v>0.3001787439427702</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.39320703355875</v>
+        <v>15.22695238970601</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>28.00808536462516</v>
+        <v>28.10506223824709</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21.83917013735254</v>
+        <v>21.49535384210474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23.34286474913941</v>
+        <v>22.85406383299005</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5165478751507079</v>
+        <v>0.5734658658546505</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.189245198386272</v>
+        <v>1.291414135988403</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.062821612064252</v>
+        <v>1.02922679707157</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.112978101469095</v>
+        <v>1.083520734369901</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.6741552986841517</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9055734724491501</v>
+        <v>0.9055734724491503</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.968154929655147</v>
+        <v>1.614024704274301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.78776120634562</v>
+        <v>-4.972469309844771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.961798718865021</v>
+        <v>3.121862733114645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.167445389671729</v>
+        <v>10.4060165242905</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06752777307749511</v>
+        <v>0.03763416865058199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.05130490627763169</v>
+        <v>-0.1382713978511337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1371963021248681</v>
+        <v>0.1224478506753305</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3388246123398239</v>
+        <v>0.432485907344086</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.26190751232222</v>
+        <v>24.53396674215335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>23.11913469485656</v>
+        <v>22.75746228867137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.15010957985111</v>
+        <v>26.09315363542883</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.42773246015221</v>
+        <v>25.85834191071059</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.695140484622409</v>
+        <v>1.638029365528387</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.165898773811329</v>
+        <v>1.234963140803087</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.556846652179997</v>
+        <v>1.618787369777116</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.680077413238191</v>
+        <v>1.616896205148819</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>1.021552294482379</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.8591384141703122</v>
+        <v>0.8591384141703124</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.018660231162619</v>
+        <v>3.559403698512367</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.188307859093353</v>
+        <v>-2.537610086402128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.066430368779628</v>
+        <v>8.288397523575203</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11.39141908269562</v>
+        <v>11.36875367970323</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1361916506452259</v>
+        <v>0.1315764467814285</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08009105057636989</v>
+        <v>-0.08440727581784171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3688736351693978</v>
+        <v>0.3981581635576476</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4504598019097081</v>
+        <v>0.4599148405792072</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.23180593484734</v>
+        <v>22.5521765163238</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.12953155283344</v>
+        <v>16.65201635944185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25.49968238166119</v>
+        <v>25.58158356293519</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24.07968377668856</v>
+        <v>24.61164619776872</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.417715466881179</v>
+        <v>1.368231329773467</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8276515124249958</v>
+        <v>0.822951609741933</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.983433526192186</v>
+        <v>2.032351567511498</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.349356633202493</v>
+        <v>1.428250516327648</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>14.64440069641564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16.57242299639235</v>
+        <v>16.57242299639234</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3068880892621381</v>
@@ -1049,7 +1049,7 @@
         <v>0.6964304525054755</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6708109631574022</v>
+        <v>0.670810963157402</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.170112414865785</v>
+        <v>2.37961733636866</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.581180380218469</v>
+        <v>6.397002512840047</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.483513192069291</v>
+        <v>9.573016331594342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12.6177248624386</v>
+        <v>12.9834569833463</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1113237704341976</v>
+        <v>0.05963922947762816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1743959820674451</v>
+        <v>0.2123008066586715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3963501536034432</v>
+        <v>0.3970681092165685</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4732342607613325</v>
+        <v>0.479311403376887</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.30415164703527</v>
+        <v>13.26058694070463</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.92579396760776</v>
+        <v>17.43310980304167</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.65404603637325</v>
+        <v>19.09280780619015</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.18280087018178</v>
+        <v>20.4595417431754</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5596603399537435</v>
+        <v>0.5485644622402166</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7150969071644313</v>
+        <v>0.7417799111312757</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.04878948760351</v>
+        <v>1.025831856016652</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8943415871491077</v>
+        <v>0.9069653863122153</v>
       </c>
     </row>
     <row r="19">
